--- a/Billing/allResources.xlsx
+++ b/Billing/allResources.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="billing" sheetId="1" r:id="rId1"/>
+    <sheet name="Billing" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -17,7 +17,7 @@
     <t>Microsoft Azure Estimate</t>
   </si>
   <si>
-    <t>billing</t>
+    <t>Billing</t>
   </si>
   <si>
     <t>Service category</t>
@@ -65,13 +65,13 @@
     <t>Deployment VMs</t>
   </si>
   <si>
-    <t>100 D4s v3 (4 vCPUs, 16 GB RAM) x 140 Hours (Pay as you go), Windows (License included), OS Only; 100 managed disks – E6; Inter Region transfer type, 5 GB outbound data transfer from France Central to East Asia</t>
+    <t>100 D4s v3 (4 vCPUs, 16 GB RAM) x 140 Hours (Pay as you go), Windows (Licence included), OS only; 100 managed disks – E6; Inter-region transfer type, 5 GB outbound data transfer from France Central to East Asia</t>
   </si>
   <si>
-    <t>testing VMS</t>
+    <t>Testing VMS</t>
   </si>
   <si>
-    <t>30 D2s v3 (2 vCPUs, 8 GB RAM) x 40 Hours (Pay as you go), Windows (License included), OS Only; 30 managed disks – E10; Inter Region transfer type, 5 GB outbound data transfer from France Central to East Asia</t>
+    <t>30 D2s v3 (2 vCPUs, 8 GB RAM) x 40 Hours (Pay as you go), Windows (Licence included), OS only; 30 managed disks – E10; Inter-region transfer type, 5 GB outbound data transfer from France Central to East Asia</t>
   </si>
   <si>
     <t>Storage</t>
@@ -80,7 +80,7 @@
     <t>Storage Accounts</t>
   </si>
   <si>
-    <t>test environments storage</t>
+    <t>Test environments storage</t>
   </si>
   <si>
     <t>Block Blob Storage, General Purpose V2, Flat Namespace, ZRS Redundancy, Hot Access Tier, 500 GB Capacity - Pay as you go, 1 x 10,000 Write operations, 1 x 10,000 List and Create Container Operations, 0 x 10,000 Read operations, 1 x 10,000 Other operations. 1,000 GB Data Retrieval, 1,000 GB Data Write, SFTP disabled</t>
@@ -95,7 +95,7 @@
     <t>Internal Database</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Database, vCore, General Purpose, Provisioned, Standard-series (Gen 5), Primary or Geo replica Disaster Recovery, Zone Redundant, 1 - 2 vCore Database(s) x 730 Hours, 300 GB Storage, SQL License (Pay as you go), ZRS Backup Storage Redundancy, 300 GB Point-In-Time Restore,  2 x 100 GB Long Term Retention</t>
+    <t xml:space="preserve">Single Database, vCore, General Purpose, Provisioned, Standard-series (Gen 5), Primary or Geo replica Disaster Recovery, Zone Redundant, 1 - 2 vCore Database(s) x 730 Hours, 300 GB Storage, SQL Licence (Pay as you go), ZRS Back up Storage Redundancy, 300 GB Point-In-Time Restore,  2 x 100 GB Long Term Retention</t>
   </si>
   <si>
     <t>Azure Functions</t>
@@ -113,7 +113,7 @@
     <t>Cosmos DB for meetings</t>
   </si>
   <si>
-    <t>Azure Cosmos DB for NoSQL (formerly Core), Standard provisioned throughput (manual), Always-free quantity disabled, Multiple Region Write (Multi-Master) - France Central (Primary Write Region), 400 RU/s x 480 Hours, 10 GB transactional storage, Analytical storage disabled, 2 copies of periodic backup storage, Dedicated Gateway not enabled</t>
+    <t>Azure Cosmos DB for NoSQL (formerly Core), Standard provisioned throughput (manual), Always-free quantity disabled, Multiple Region Write (Multi-Master) - France Central (Primary write region), 1,000 RU/s x 480 Hours, 10 GB transactional storage, Analytical storage disabled, 2 copies of periodic backup storage, Dedicated gateway not enabled</t>
   </si>
   <si>
     <t>Storage for images and videos</t>
@@ -134,7 +134,7 @@
     <t>Kubernetes</t>
   </si>
   <si>
-    <t>Standard; Cluster management for 1 clusters; 2 A8 v2 (8 vCPUs, 16 GB RAM) x 730 Hours (Pay as you go), Windows (License Included); 2 managed OS disks – E6</t>
+    <t>Standard; Cluster management for 1 clusters; 2 A8 v2 (8 vCPUs, 16 GB RAM) x 730 Hours (Pay as you go), Windows (Licence included); 2 managed OS disks – E6</t>
   </si>
   <si>
     <t>Networking</t>
@@ -203,7 +203,7 @@
     <t>East US</t>
   </si>
   <si>
-    <t>Phone numbers leasing: 350 local and 0 toll-free United States (+1) phone number(s); Phone number lookup: 0 line type queries; Voice and Video Calling - over IP: 1 reoccurring call(s) (30 minutes X 0 call(s) per month X 0 participants per call); Call Recording: 0 Mixed audio recorded minutes, 0 Mixed audio and video recorded minutes, 0 Unmixed audio minutes for 0 participants; SIP Direct Routing: 0 Inbound calling minutes, 0 Outbound calling minutes; Chat: 0 chat users x 0 message(s) sent per chat user; Email: 21000 Email sent per month, 0.015 MB per Email; Whatsapp messaging: 0 Inbound messages, 0 Outbound messages; Job Router: 0 Jobs Routed per month</t>
+    <t>Phone numbers leasing: 0 local and 0 toll-free United States (+1) phone number(s); Phone number lookup: 0 line type queries; Voice and Video Calling - over IP: 1 reoccurring call(s) (30 minutes X 0 call(s) per month X 0 participants per call); Call Recording: 0 Mixed audio recorded minutes, 0 Mixed audio and video recorded minutes, 0 Unmixed audio minutes for 0 participants; SIP Direct Routing: 0 Inbound calling minutes, 0 Outbound calling minutes; Chat: 0 chat users x 0 message(s) sent per chat user; Email: 21000 Email sent per month, 0.015 MB per Email; Whatsapp messaging: 0 Inbound messages, 0 Outbound messages; Job Router: 0 Jobs Routed per month</t>
   </si>
   <si>
     <t>Support</t>
@@ -233,7 +233,7 @@
     <t>All prices shown are in Euro Zone – Euro (€) EUR. This is a summary estimate, not a quote. For up to date pricing information please visit https://azure.microsoft.com/pricing/calculator/</t>
   </si>
   <si>
-    <t>This estimate was created at 7/24/2024 9:43:20 AM UTC.</t>
+    <t>This estimate was created at 7/24/2024 11:39:05 AM UTC.</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="5">
-        <v>38.875626082479052</v>
+        <v>92.80063661470767</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>63</v>
       </c>
       <c r="F21" s="5">
-        <v>332.61976314188081</v>
+        <v>4.95042831063053</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="15">
-        <v>12875.637691335487</v>
+        <v>12601.893367036466</v>
       </c>
       <c r="G26" s="15">
         <v>0</v>

--- a/Billing/allResources.xlsx
+++ b/Billing/allResources.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Microsoft Azure Estimate</t>
   </si>
@@ -95,7 +95,7 @@
     <t>Internal Database</t>
   </si>
   <si>
-    <t xml:space="preserve">Single Database, vCore, General Purpose, Provisioned, Standard-series (Gen 5), Primary or Geo replica Disaster Recovery, Zone Redundant, 1 - 2 vCore Database(s) x 730 Hours, 300 GB Storage, SQL Licence (Pay as you go), ZRS Back up Storage Redundancy, 300 GB Point-In-Time Restore,  2 x 100 GB Long Term Retention</t>
+    <t xml:space="preserve">Single Database, vCore, General Purpose, Provisioned, Standard-series (Gen 5), Primary or Geo replica Disaster Recovery, Zone Redundant, 1 - 2 vCore Database(s) x 730 Hours, 300 GB Storage, SQL Licence (Pay as you go), ZRS Back up Storage Redundancy, 300 GB Point-In-Time Restore,  3 x 100 GB Long Term Retention</t>
   </si>
   <si>
     <t>Azure Functions</t>
@@ -206,6 +206,21 @@
     <t>Phone numbers leasing: 0 local and 0 toll-free United States (+1) phone number(s); Phone number lookup: 0 line type queries; Voice and Video Calling - over IP: 1 reoccurring call(s) (30 minutes X 0 call(s) per month X 0 participants per call); Call Recording: 0 Mixed audio recorded minutes, 0 Mixed audio and video recorded minutes, 0 Unmixed audio minutes for 0 participants; SIP Direct Routing: 0 Inbound calling minutes, 0 Outbound calling minutes; Chat: 0 chat users x 0 message(s) sent per chat user; Email: 21000 Email sent per month, 0.015 MB per Email; Whatsapp messaging: 0 Inbound messages, 0 Outbound messages; Job Router: 0 Jobs Routed per month</t>
   </si>
   <si>
+    <t>Azure Cache for Redis</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Standard tier; 1 C3 instances x 730 Hours</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Database, vCore, General Purpose, Provisioned, Standard-series (Gen 5), Primary or Geo replica Disaster Recovery, Zone Redundant, 1 - 2 vCore Database(s) x 730 Hours, 300 GB Storage, SQL Licence (Pay as you go), RA-GRS Back up Storage Redundancy, 300 GB Point-In-Time Restore,  3 x 100 GB Long Term Retention</t>
+  </si>
+  <si>
     <t>Support</t>
   </si>
   <si>
@@ -216,9 +231,6 @@
   </si>
   <si>
     <t>Billing Account</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Billing Profile</t>
@@ -233,7 +245,7 @@
     <t>All prices shown are in Euro Zone – Euro (€) EUR. This is a summary estimate, not a quote. For up to date pricing information please visit https://azure.microsoft.com/pricing/calculator/</t>
   </si>
   <si>
-    <t>This estimate was created at 7/24/2024 11:39:05 AM UTC.</t>
+    <t>This estimate was created at 7/24/2024 3:32:32 PM UTC.</t>
   </si>
 </sst>
 </file>
@@ -674,7 +686,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="5">
-        <v>693.314609371343</v>
+        <v>696.97514394045777</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -1241,16 +1253,22 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="13" t="s">
-        <v>64</v>
+      <c r="C22" s="3" t="s">
+        <v>65</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F22" s="5">
-        <v>93.619809951785783</v>
+        <v>384.08463230819638</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
@@ -1276,17 +1294,27 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="13" t="s">
-        <v>65</v>
+      <c r="A23" s="3" t="s">
+        <v>24</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>66</v>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="C23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="5">
+        <v>731.63319758460887</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1308,17 +1336,21 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>68</v>
+      <c r="E24" s="12"/>
+      <c r="F24" s="5">
+        <v>93.619809951785783</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1344,10 +1376,10 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1375,16 +1407,14 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="14" t="s">
-        <v>70</v>
+      <c r="D26" s="13" t="s">
+        <v>72</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="15">
-        <v>12601.893367036466</v>
+      <c r="E26" s="13" t="s">
+        <v>67</v>
       </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="7"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1409,8 +1439,12 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="7"/>
@@ -1434,15 +1468,19 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
-        <v>71</v>
-      </c>
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="D28" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="15">
+        <v>13721.271731498386</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1464,15 +1502,13 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1494,15 +1530,15 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="16" t="s">
-        <v>73</v>
+      <c r="A30" s="13" t="s">
+        <v>75</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="7"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1524,7 +1560,9 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="16"/>
+      <c r="A31" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -1552,13 +1590,15 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="A32" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="7"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1580,13 +1620,13 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="7"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -28687,8 +28727,8 @@
   <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
